--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -64,18 +61,24 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -85,60 +88,63 @@
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -149,9 +155,6 @@
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
         <v>0.9491525423728814</v>
@@ -628,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4656084656084656</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.925</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4321705426356589</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C5">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D5">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -720,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3466666666666667</v>
+        <v>0.3087248322147651</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2751677852348993</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8664921465968587</v>
+        <v>0.835509138381201</v>
       </c>
       <c r="L7">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M7">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -817,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1587301587301587</v>
+        <v>0.1018766756032172</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8611111111111112</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,37 +881,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06702412868632708</v>
+        <v>0.01715765619941729</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>348</v>
+        <v>3036</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.839622641509434</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,37 +931,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.01584734799482536</v>
+        <v>0.01368570080226522</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="E10">
-        <v>0.23</v>
+        <v>0.45</v>
       </c>
       <c r="F10">
-        <v>0.77</v>
+        <v>0.55</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>3043</v>
+        <v>2090</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,21 +973,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.009223918575063612</v>
+      </c>
+      <c r="C11">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>0.66</v>
+      </c>
+      <c r="F11">
+        <v>0.34</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3115</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8098591549295775</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,21 +1023,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1022,21 +1049,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.8</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1048,21 +1075,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1074,21 +1101,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.775</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1100,21 +1127,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1126,21 +1153,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7209302325581395</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1152,21 +1179,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1178,21 +1205,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>0.6875</v>
+      </c>
+      <c r="L19">
         <v>33</v>
       </c>
-      <c r="K19">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
       <c r="M19">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1204,21 +1231,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.638235294117647</v>
+        <v>0.675</v>
       </c>
       <c r="L20">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1230,47 +1257,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6292517006802721</v>
+        <v>0.66</v>
       </c>
       <c r="L21">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.625</v>
+        <v>0.6558823529411765</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1282,21 +1309,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6170212765957447</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L23">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1308,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1334,47 +1361,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6108786610878661</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="L25">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="M25">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1386,47 +1413,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27">
+        <v>0.5638297872340425</v>
+      </c>
+      <c r="L27">
+        <v>53</v>
+      </c>
+      <c r="M27">
+        <v>53</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>41</v>
-      </c>
-      <c r="K27">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L27">
-        <v>40</v>
-      </c>
-      <c r="M27">
-        <v>40</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.550561797752809</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L28">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1438,21 +1465,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>0.4831460674157304</v>
+      </c>
+      <c r="L29">
         <v>43</v>
       </c>
-      <c r="K29">
-        <v>0.3561643835616438</v>
-      </c>
-      <c r="L29">
-        <v>26</v>
-      </c>
       <c r="M29">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1464,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.3333333333333333</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1490,33 +1517,59 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.01384954359458609</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N31">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>3133</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>0.01796973518284994</v>
+      </c>
+      <c r="L32">
+        <v>57</v>
+      </c>
+      <c r="M32">
+        <v>86</v>
+      </c>
+      <c r="N32">
+        <v>0.66</v>
+      </c>
+      <c r="O32">
+        <v>0.34</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3115</v>
       </c>
     </row>
   </sheetData>
